--- a/src/test/resources/example/IF0001/UT0001/setup_DB_H2_001.xlsx
+++ b/src/test/resources/example/IF0001/UT0001/setup_DB_H2_001.xlsx
@@ -100,7 +100,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249977111117893"/>
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -456,9 +456,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
